--- a/apps/reports-api/files/XD SEMANAL CORRECTIVO.xlsx
+++ b/apps/reports-api/files/XD SEMANAL CORRECTIVO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DF57BE-2630-44E7-B65F-470DAFC63D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB0F46-43A1-4703-961A-86D631F13D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11940" yWindow="0" windowWidth="27705" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="ManageEngine Report Framework" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ManageEngine Report Framework'!$B$1:$L$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ManageEngine Report Framework'!$B$1:$L$124</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">'ManageEngine Report Framework'!$A$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="521">
   <si>
     <t>Technician</t>
   </si>
@@ -107,9 +107,6 @@
     <t>PE|C12|CEG|CONSULTA POSTULANTE| Reporte Crediticio incompleto</t>
   </si>
   <si>
-    <t>19/01/2026 09:34</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/x/inl5DQ</t>
   </si>
   <si>
@@ -128,126 +125,117 @@
     <t>Media</t>
   </si>
   <si>
-    <t>19/01/2026 17:38</t>
-  </si>
-  <si>
     <t>No asignado</t>
   </si>
   <si>
+    <t>Joao Martín Solórzano Ambía - TISMART</t>
+  </si>
+  <si>
+    <t>APP - Gestiona tu Negocio (SE)</t>
+  </si>
+  <si>
+    <t>143655</t>
+  </si>
+  <si>
+    <t>01/12/2025 16:10</t>
+  </si>
+  <si>
+    <t>En Mantenimiento Correctivo</t>
+  </si>
+  <si>
+    <t>MX|C18|FFVV|GTN|PEDIDOS| 5411G No se ven PEDIDOS VALIDADOS.</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>145418</t>
+  </si>
+  <si>
+    <t>05/12/2025 17:08</t>
+  </si>
+  <si>
+    <t>FFVV Avance de facturación</t>
+  </si>
+  <si>
+    <t>CR|C18|GTN|AVANCE FACTURACIÓN| Socia Empresaria que se encuentra en factutración y su app no abre en facturación</t>
+  </si>
+  <si>
+    <t>106747</t>
+  </si>
+  <si>
+    <t>31/07/2025 08:37</t>
+  </si>
+  <si>
+    <t>FFVV Buscar consultora</t>
+  </si>
+  <si>
+    <t>BO|C12|APP GTN| PERFIL CONSULTORA| No registro de acuerdos - SE</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/HlDCDQ</t>
+  </si>
+  <si>
+    <t>115348</t>
+  </si>
+  <si>
+    <t>27/08/2025 10:48</t>
+  </si>
+  <si>
+    <t>FFVV Ruta de desarrollo</t>
+  </si>
+  <si>
+    <t>PE|APP GTN|RDD| SE no puede registrar visitas RDD</t>
+  </si>
+  <si>
+    <t>Joselin Stefany Burgos Medina - Tismart</t>
+  </si>
+  <si>
+    <t>110650</t>
+  </si>
+  <si>
+    <t>12/08/2025 10:20</t>
+  </si>
+  <si>
+    <t>PRD Deployment</t>
+  </si>
+  <si>
+    <t>SV|C12|APP GTN|BOLSA DE PEDIDOS|CS en pedidos No Validados aparecen duplicadas</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/Ujs5DQ</t>
+  </si>
+  <si>
+    <t>111432</t>
+  </si>
+  <si>
+    <t>13/08/2025 17:15</t>
+  </si>
+  <si>
+    <t>Dev  in Progress</t>
+  </si>
+  <si>
+    <t>EC|C12|APP GTN| Pedidos app SE</t>
+  </si>
+  <si>
+    <t>APP - SOMOS BELCORP</t>
+  </si>
+  <si>
+    <t>98182</t>
+  </si>
+  <si>
+    <t>02/07/2025 18:43</t>
+  </si>
+  <si>
+    <t>SB2 Pago en Línea</t>
+  </si>
+  <si>
+    <t>DO|C10|APP SOMOS BELCORP|PAGO EN LÍNEA| Inconveniente con aplicacion de pagos por tarjeta</t>
+  </si>
+  <si>
     <t>Freddy Robert Bedregal Ticona</t>
   </si>
   <si>
-    <t>APP - Gestiona tu Negocio (SE)</t>
-  </si>
-  <si>
-    <t>132170</t>
-  </si>
-  <si>
-    <t>21/10/2025 15:38</t>
-  </si>
-  <si>
-    <t>Dev  in Progress</t>
-  </si>
-  <si>
-    <t>FFVV Botón ciclo de nuevas</t>
-  </si>
-  <si>
-    <t>MX| App CEG- App GTN | C16| Ciclo de Nuevas | Consultora que deberia ser multicategoria no se muestra de esa forma</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>125609</t>
-  </si>
-  <si>
-    <t>29/09/2025 13:10</t>
-  </si>
-  <si>
-    <t>FFVV Avance de facturación</t>
-  </si>
-  <si>
-    <t>CR|C15|GTN|BOSAPEDIDOS| No le aparee pedido multimarca en app, valido en atecion al cliante, le confirma que si es multimarca: TI PAIS.</t>
-  </si>
-  <si>
-    <t>19/01/2026 16:43</t>
-  </si>
-  <si>
-    <t>Joao Martín Solórzano Ambía - TISMART</t>
-  </si>
-  <si>
-    <t>106747</t>
-  </si>
-  <si>
-    <t>31/07/2025 08:37</t>
-  </si>
-  <si>
-    <t>FFVV Buscar consultora</t>
-  </si>
-  <si>
-    <t>BO|C12|APP GTN| PERFIL CONSULTORA| No registro de acuerdos - SE</t>
-  </si>
-  <si>
-    <t>19/01/2026 09:33</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/HlDCDQ</t>
-  </si>
-  <si>
-    <t>115348</t>
-  </si>
-  <si>
-    <t>27/08/2025 10:48</t>
-  </si>
-  <si>
-    <t>En Mantenimiento Correctivo</t>
-  </si>
-  <si>
-    <t>FFVV Ruta de desarrollo</t>
-  </si>
-  <si>
-    <t>PE|APP GTN|RDD| SE no puede registrar visitas RDD</t>
-  </si>
-  <si>
-    <t>28/11/2025 09:35</t>
-  </si>
-  <si>
-    <t>111432</t>
-  </si>
-  <si>
-    <t>13/08/2025 17:15</t>
-  </si>
-  <si>
-    <t>EC|C12|APP GTN| Pedidos app SE</t>
-  </si>
-  <si>
-    <t>28/11/2025 09:39</t>
-  </si>
-  <si>
-    <t>Joselin Stefany Burgos Medina - Tismart</t>
-  </si>
-  <si>
-    <t>110650</t>
-  </si>
-  <si>
-    <t>12/08/2025 10:20</t>
-  </si>
-  <si>
-    <t>PRD Deployment</t>
-  </si>
-  <si>
-    <t>SV|C12|APP GTN|BOLSA DE PEDIDOS|CS en pedidos No Validados aparecen duplicadas</t>
-  </si>
-  <si>
-    <t>27/10/2025 09:38</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/Ujs5DQ</t>
-  </si>
-  <si>
-    <t>APP - SOMOS BELCORP</t>
-  </si>
-  <si>
     <t>132347</t>
   </si>
   <si>
@@ -263,24 +251,33 @@
     <t>https://confluence.belcorp.biz/display/RSB/SDP-132347+ALL%7CC16%7CAPP+SB%7CPED%7C+Experiencia+en+reserva+de+pedido+distinta+a+la+Web</t>
   </si>
   <si>
-    <t>98182</t>
-  </si>
-  <si>
-    <t>02/07/2025 18:43</t>
-  </si>
-  <si>
-    <t>SB2 Pago en Línea</t>
-  </si>
-  <si>
-    <t>DO|C10|APP SOMOS BELCORP|PAGO EN LÍNEA| Inconveniente con aplicacion de pagos por tarjeta</t>
-  </si>
-  <si>
-    <t>27/10/2025 18:00</t>
+    <t>141983</t>
+  </si>
+  <si>
+    <t>25/11/2025 17:25</t>
+  </si>
+  <si>
+    <t>SB2 Ofertas Gana+</t>
+  </si>
+  <si>
+    <t>CO | ODD | C18 | SB| GANA+|Ofertas del día que aparecen en App son diferentes a las que aparecen en WEB</t>
   </si>
   <si>
     <t>Clara Gonzales Marques - Tismart</t>
   </si>
   <si>
+    <t>140744</t>
+  </si>
+  <si>
+    <t>20/11/2025 19:44</t>
+  </si>
+  <si>
+    <t>APP|MX|C17 OFERTA SE VE DUPLICADA EN EL BUSCADOR</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/IWHvDQ</t>
+  </si>
+  <si>
     <t>118026</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
     <t>CL|SB|CAMBIOS Y DEVOLUCIONES|Error en CDR WEB, vía App y web mobile</t>
   </si>
   <si>
-    <t>31/10/2025 16:24</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=226043974</t>
   </si>
   <si>
@@ -305,15 +299,9 @@
     <t>19/08/2025 13:10</t>
   </si>
   <si>
-    <t>SB2 Ofertas Gana+</t>
-  </si>
-  <si>
     <t>PE|C13|APPSOMOSBELCORP|GANA+|arma tu pack componentes repetidos en oferta variable</t>
   </si>
   <si>
-    <t>10/11/2025 16:42</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/x/xyh5DQ</t>
   </si>
   <si>
@@ -329,13 +317,103 @@
     <t>MX|C10|SB|MI TIENDA ONLINE|Problemas para carga de PDF de CURP y RFC</t>
   </si>
   <si>
-    <t>07/11/2025 15:37</t>
+    <t>https://confluence.belcorp.biz/display/RSB/SDP-95686+MX%7CC10%7CSB%7CMI+TIENDA+ONLINE%7CProblemas+para+carga+de+PDF+de+CURP+y+RFC</t>
+  </si>
+  <si>
+    <t>Catálogo Digital</t>
+  </si>
+  <si>
+    <t>124492</t>
+  </si>
+  <si>
+    <t>24/09/2025 16:56</t>
+  </si>
+  <si>
+    <t>CD Checkout prepedidos</t>
+  </si>
+  <si>
+    <t>MX|C15|CD| Problemas con el catálogo digital de Cyzone para C15.</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/QhzCDQ</t>
+  </si>
+  <si>
+    <t>113740</t>
+  </si>
+  <si>
+    <t>21/08/2025 15:21</t>
+  </si>
+  <si>
+    <t>MX|C13|SB|PASE DE PEDIDOS|Problema de precios de catálogo digital y catálogo físico</t>
+  </si>
+  <si>
+    <t>101814</t>
+  </si>
+  <si>
+    <t>15/07/2025 15:09</t>
+  </si>
+  <si>
+    <t>CD Catalog</t>
+  </si>
+  <si>
+    <t>TODOS|TODOS|CD|CATALOG|the bundles: add to cart button is failed</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/BArCDQ</t>
+  </si>
+  <si>
+    <t>109921</t>
+  </si>
+  <si>
+    <t>08/08/2025 18:24</t>
+  </si>
+  <si>
+    <t>CD Search</t>
+  </si>
+  <si>
+    <t>ALL|C12|CD|SEARCH|Al buscar un cuv con tono en el buscador aparece la imagen y descripción relacionada al CUV Padre</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/WCnCDQ</t>
   </si>
   <si>
     <t>Manuel Andres Rosales Levano - TISMART</t>
   </si>
   <si>
-    <t>Catálogo Digital</t>
+    <t>103050</t>
+  </si>
+  <si>
+    <t>18/07/2025 10:42</t>
+  </si>
+  <si>
+    <t>MX|C12|CD|PREPEDIDOS CHECKOUT|Error al solicitar productos en Catalogo Digital - Caso Hijo.</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/XxfCDQ</t>
+  </si>
+  <si>
+    <t>132854</t>
+  </si>
+  <si>
+    <t>23/10/2025 12:25</t>
+  </si>
+  <si>
+    <t>PR-USA|C12|CD|CATALOG|Consultoras no pueden visualizar Catalogo Digital</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/bDfCDQ</t>
+  </si>
+  <si>
+    <t>100192</t>
+  </si>
+  <si>
+    <t>09/07/2025 15:49</t>
+  </si>
+  <si>
+    <t>ALL|C11|CATALOGO DIGITAL|CATALOG| Error en mensaje al compartir una página de cd link genérico</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/cwLCDQ</t>
   </si>
   <si>
     <t>113114</t>
@@ -350,7 +428,25 @@
     <t>PE|C132|CD|PDP|Anomalía con CUV Set 35049</t>
   </si>
   <si>
-    <t>18/11/2025 09:47</t>
+    <t>111996</t>
+  </si>
+  <si>
+    <t>15/08/2025 10:25</t>
+  </si>
+  <si>
+    <t>ALL|C13|CATALOGO DIGITAL|CATALOG|cambio de imágenes en selección de tono</t>
+  </si>
+  <si>
+    <t>108211</t>
+  </si>
+  <si>
+    <t>04/08/2025 21:29</t>
+  </si>
+  <si>
+    <t>CORP|C13|CATALOGO DIGITAL|CATALOG|Error al seleccionar producto</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/TCR5DQ</t>
   </si>
   <si>
     <t>109419</t>
@@ -365,147 +461,9 @@
     <t>MX|CD|Catálogo Digital Inhabilitado.</t>
   </si>
   <si>
-    <t>19/11/2025 18:44</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/x/PCR5DQ</t>
   </si>
   <si>
-    <t>108211</t>
-  </si>
-  <si>
-    <t>04/08/2025 21:29</t>
-  </si>
-  <si>
-    <t>CD Catalog</t>
-  </si>
-  <si>
-    <t>CORP|C13|CATALOGO DIGITAL|CATALOG|Error al seleccionar producto</t>
-  </si>
-  <si>
-    <t>13/11/2025 18:45</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/TCR5DQ</t>
-  </si>
-  <si>
-    <t>101814</t>
-  </si>
-  <si>
-    <t>15/07/2025 15:09</t>
-  </si>
-  <si>
-    <t>TODOS|TODOS|CD|CATALOG|the bundles: add to cart button is failed</t>
-  </si>
-  <si>
-    <t>18/11/2025 10:11</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/BArCDQ</t>
-  </si>
-  <si>
-    <t>113740</t>
-  </si>
-  <si>
-    <t>21/08/2025 15:21</t>
-  </si>
-  <si>
-    <t>CD Checkout prepedidos</t>
-  </si>
-  <si>
-    <t>MX|C13|SB|PASE DE PEDIDOS|Problema de precios de catálogo digital y catálogo físico</t>
-  </si>
-  <si>
-    <t>06/11/2025 09:46</t>
-  </si>
-  <si>
-    <t>100192</t>
-  </si>
-  <si>
-    <t>09/07/2025 15:49</t>
-  </si>
-  <si>
-    <t>ALL|C11|CATALOGO DIGITAL|CATALOG| Error en mensaje al compartir una página de cd link genérico</t>
-  </si>
-  <si>
-    <t>30/10/2025 09:48</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/cwLCDQ</t>
-  </si>
-  <si>
-    <t>119183</t>
-  </si>
-  <si>
-    <t>08/09/2025 21:20</t>
-  </si>
-  <si>
-    <t>PE|C13|SB|PASE DE PEDIDOS|Cs visualiza oferta de catálogo a 7.89 soles</t>
-  </si>
-  <si>
-    <t>10/12/2025 09:46</t>
-  </si>
-  <si>
-    <t>111996</t>
-  </si>
-  <si>
-    <t>15/08/2025 10:25</t>
-  </si>
-  <si>
-    <t>ALL|C13|CATALOGO DIGITAL|CATALOG|cambio de imágenes en selección de tono</t>
-  </si>
-  <si>
-    <t>19/11/2025 09:47</t>
-  </si>
-  <si>
-    <t>103050</t>
-  </si>
-  <si>
-    <t>18/07/2025 10:42</t>
-  </si>
-  <si>
-    <t>MX|C12|CD|PREPEDIDOS CHECKOUT|Error al solicitar productos en Catalogo Digital - Caso Hijo.</t>
-  </si>
-  <si>
-    <t>05/11/2025 09:48</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/XxfCDQ</t>
-  </si>
-  <si>
-    <t>109921</t>
-  </si>
-  <si>
-    <t>08/08/2025 18:24</t>
-  </si>
-  <si>
-    <t>CD Search</t>
-  </si>
-  <si>
-    <t>ALL|C12|CD|SEARCH|Al buscar un cuv con tono en el buscador aparece la imagen y descripción relacionada al CUV Padre</t>
-  </si>
-  <si>
-    <t>18/11/2025 18:45</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/WCnCDQ</t>
-  </si>
-  <si>
-    <t>124492</t>
-  </si>
-  <si>
-    <t>24/09/2025 16:56</t>
-  </si>
-  <si>
-    <t>MX|C15|CD| Problemas con el catálogo digital de Cyzone para C15.</t>
-  </si>
-  <si>
-    <t>05/11/2025 22:22</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/QhzCDQ</t>
-  </si>
-  <si>
     <t>111988</t>
   </si>
   <si>
@@ -515,34 +473,52 @@
     <t>ALL|C13|CATALOGO DIGITAL|CATALOG|No se puede hacer zoom en desktop</t>
   </si>
   <si>
-    <t>27/11/2025 16:37</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/display/RSB/SDP-111988+ALL%7CC13%7CCATALOGO+DIGITAL%7CCATALOG%7CNo+se+puede+hacer+zoom+en+desktop</t>
   </si>
   <si>
-    <t>132854</t>
-  </si>
-  <si>
-    <t>23/10/2025 12:25</t>
-  </si>
-  <si>
-    <t>PR-USA|C12|CD|CATALOG|Consultoras no pueden visualizar Catalogo Digital</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/bDfCDQ</t>
-  </si>
-  <si>
-    <t>Alain Daniel Navarro Angulo - TISMART</t>
-  </si>
-  <si>
-    <t>132749</t>
-  </si>
-  <si>
-    <t>23/10/2025 09:32</t>
-  </si>
-  <si>
-    <t>CO|C10|CD|PEDIDOS| No se agregan Productos a la Bolsa de Pedido de Cat Digital</t>
+    <t>97153</t>
+  </si>
+  <si>
+    <t>30/06/2025 12:54</t>
+  </si>
+  <si>
+    <t>MX|C11|CD|CHECKOUT PREPEDIDOS|Mensaje de error indicando impedimento para completar el pase de pedidos</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/vxrCDQ</t>
+  </si>
+  <si>
+    <t>143114</t>
+  </si>
+  <si>
+    <t>28/11/2025 17:19</t>
+  </si>
+  <si>
+    <t>MX|C18|CATALOGO DIGITAL|CD|Error en pedido digital C18</t>
+  </si>
+  <si>
+    <t>54490</t>
+  </si>
+  <si>
+    <t>13/01/2025 19:01</t>
+  </si>
+  <si>
+    <t>Consultora adelanto su pedido en facturación anticipada y ahora debería estar en la C03 pero cuando abre su catálogo digital le arroja el de la C02</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/rDLCDQ</t>
+  </si>
+  <si>
+    <t>128677</t>
+  </si>
+  <si>
+    <t>08/10/2025 15:18</t>
+  </si>
+  <si>
+    <t>MX|C16|CD|CATALOG|Ofertas individuales de varias tonalidades a escoger son mostradas como SET de forma errónea</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/oDLCDQ</t>
   </si>
   <si>
     <t>134919</t>
@@ -554,19 +530,7 @@
     <t>MX|C16|CD|CATALOG|Pedidos por catalogo digital no llegan a la bandeja de consultora para ser aprobados</t>
   </si>
   <si>
-    <t>128677</t>
-  </si>
-  <si>
-    <t>08/10/2025 15:18</t>
-  </si>
-  <si>
-    <t>MX|C16|CD|CATALOG|Ofertas individuales de varias tonalidades a escoger son mostradas como SET de forma errónea</t>
-  </si>
-  <si>
-    <t>24/11/2025 16:43</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/oDLCDQ</t>
+    <t>https://confluence.belcorp.biz/x/GCrvDQ</t>
   </si>
   <si>
     <t>108418</t>
@@ -578,12 +542,21 @@
     <t>CD|APPSB|C11|MENSAJE DE ERROR Mensaje de error e imagen faltante</t>
   </si>
   <si>
-    <t>24/10/2025 09:28</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/x/tHl5DQ</t>
   </si>
   <si>
+    <t>86972</t>
+  </si>
+  <si>
+    <t>22/05/2025 23:25</t>
+  </si>
+  <si>
+    <t>SB2.0|Catalogos y revistas|Imagen de previsualizacion de paginas compartidas es intermitente</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/NS15DQ</t>
+  </si>
+  <si>
     <t>124672</t>
   </si>
   <si>
@@ -593,96 +566,12 @@
     <t>CL|C16|CATALOGO DIGITAL|CATALOG|Consultora en C16 al entrar a los catalogos de C16 visualiza los de C15</t>
   </si>
   <si>
-    <t>24/11/2025 09:45</t>
-  </si>
-  <si>
-    <t>86972</t>
-  </si>
-  <si>
-    <t>22/05/2025 23:25</t>
-  </si>
-  <si>
-    <t>SB2.0|Catalogos y revistas|Imagen de previsualizacion de paginas compartidas es intermitente</t>
-  </si>
-  <si>
-    <t>10/11/2025 15:45</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/NS15DQ</t>
-  </si>
-  <si>
-    <t>126598</t>
-  </si>
-  <si>
-    <t>01/10/2025 13:12</t>
-  </si>
-  <si>
-    <t>CL|C15|CD|ECATALOG|Redireccion al catalogo con información de CS incorrecta</t>
-  </si>
-  <si>
-    <t>24/11/2025 16:44</t>
-  </si>
-  <si>
-    <t>54490</t>
-  </si>
-  <si>
-    <t>13/01/2025 19:01</t>
-  </si>
-  <si>
-    <t>Consultora adelanto su pedido en facturación anticipada y ahora debería estar en la C03 pero cuando abre su catálogo digital le arroja el de la C02</t>
-  </si>
-  <si>
-    <t>05/11/2025 09:49</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/rDLCDQ</t>
-  </si>
-  <si>
-    <t>97153</t>
-  </si>
-  <si>
-    <t>30/06/2025 12:54</t>
-  </si>
-  <si>
-    <t>MX|C11|CD|CHECKOUT PREPEDIDOS|Mensaje de error indicando impedimento para completar el pase de pedidos</t>
-  </si>
-  <si>
-    <t>18/11/2025 17:52</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/vxrCDQ</t>
+    <t>https://confluence.belcorp.biz/x/1znvDQ</t>
   </si>
   <si>
     <t>Portal FFVV</t>
   </si>
   <si>
-    <t>127023</t>
-  </si>
-  <si>
-    <t>02/10/2025 11:57</t>
-  </si>
-  <si>
-    <t>ALL|ALL|FFVV|BOLSA DE PEDIDOS|SP is generating waits during these days after the stabilization of the DB FFVV.GetConsultantMultibilling_Multi</t>
-  </si>
-  <si>
-    <t>03/11/2025 20:07</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/mTfCDQ</t>
-  </si>
-  <si>
-    <t>127021</t>
-  </si>
-  <si>
-    <t>02/10/2025 11:53</t>
-  </si>
-  <si>
-    <t>ALL|ALL|FFVV|BOLSA DE PEDIDOS|Performance SP: FFVV.GetPedidosWebNoValidados_V4</t>
-  </si>
-  <si>
-    <t>03/11/2025 20:06</t>
-  </si>
-  <si>
     <t>109031</t>
   </si>
   <si>
@@ -692,9 +581,6 @@
     <t>BO|C12|PORTAL FFVV| CONSULTORA| Problema de consulta crediticia</t>
   </si>
   <si>
-    <t>24/11/2025 09:34</t>
-  </si>
-  <si>
     <t>Jonathan Augusto Alvarez Vargas</t>
   </si>
   <si>
@@ -710,9 +596,6 @@
     <t>MX|C18|FFVV|DATA REPORT|Error en Meta de Pedidos App SE 5408F</t>
   </si>
   <si>
-    <t>27/10/2025 13:18</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/display/RSB/RCA+SDP-41825+MX%7CC18%7CFFVV%7CDATA+REPORT%7CError+en+Meta+de+Pedidos+App+SE+5408F</t>
   </si>
   <si>
@@ -725,24 +608,21 @@
     <t>EC|FFVV|C11|DATOS DESACTUALIZADOS | PORTAL DE FUERZA DE VENTA</t>
   </si>
   <si>
-    <t>24/11/2025 09:33</t>
-  </si>
-  <si>
-    <t>114081</t>
-  </si>
-  <si>
-    <t>22/08/2025 13:31</t>
-  </si>
-  <si>
-    <t>FFVV Login (ingreso al app)</t>
-  </si>
-  <si>
-    <t>SV|C12|FFVV|Gz no puede acceder a portal indica que no cuenta con usuario</t>
+    <t>Brayan Smith Martinez Ojeda</t>
   </si>
   <si>
     <t>PROL</t>
   </si>
   <si>
+    <t>139347</t>
+  </si>
+  <si>
+    <t>17/11/2025 09:29</t>
+  </si>
+  <si>
+    <t>BO|PROL|PPA| Diferencias en faltante PROL PPA vs Somos Belcorp - 15/nov</t>
+  </si>
+  <si>
     <t>82724</t>
   </si>
   <si>
@@ -752,9 +632,6 @@
     <t>MX|C08|PROL|agotados no agotados en somos belcorp 2.0</t>
   </si>
   <si>
-    <t>31/10/2025 18:26</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/x/IOCjD</t>
   </si>
   <si>
@@ -767,7 +644,13 @@
     <t>EC|C14|PROL|Pedido se puede reservar con producto de Promoción sin cumplir condición</t>
   </si>
   <si>
-    <t>10/11/2025 09:29</t>
+    <t>122740</t>
+  </si>
+  <si>
+    <t>18/09/2025 12:05</t>
+  </si>
+  <si>
+    <t>PE|C14|PROL|CUV condicionado 17952 no fue atendido en facturación</t>
   </si>
   <si>
     <t>Margarita Layme</t>
@@ -782,12 +665,12 @@
     <t>BO|C15|PROL|ACTUALIZACION PROL|Faltante virtual cae ODS por duplicados (ERROR  [#SHARPEN] Error en el módulo DIGITAL - país BO)</t>
   </si>
   <si>
-    <t>31/10/2025 18:25</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=204523512</t>
   </si>
   <si>
+    <t>Edson Ademar Vizcaino Imbaquingo</t>
+  </si>
+  <si>
     <t>52122</t>
   </si>
   <si>
@@ -800,532 +683,490 @@
     <t>EC|C01|PROL| PROL Activacion| Caida de PROL Activación Código SAP con caracteres especiales - TI PAIS</t>
   </si>
   <si>
-    <t>10/11/2025 14:19</t>
-  </si>
-  <si>
-    <t>Brayan Smith Martinez Ojeda</t>
-  </si>
-  <si>
-    <t>122740</t>
-  </si>
-  <si>
-    <t>18/09/2025 12:05</t>
-  </si>
-  <si>
-    <t>PE|C14|PROL|CUV condicionado 17952 no fue atendido en facturación</t>
-  </si>
-  <si>
-    <t>07/11/2025 09:28</t>
-  </si>
-  <si>
     <t>Somos Belcorp 2.0</t>
   </si>
   <si>
-    <t>135339</t>
-  </si>
-  <si>
-    <t>03/11/2025 10:10</t>
+    <t>135948</t>
+  </si>
+  <si>
+    <t>04/11/2025 16:31</t>
+  </si>
+  <si>
+    <t>SB2 Back order</t>
+  </si>
+  <si>
+    <t>TODOSPAISES|C10|SB|BACKORDER|Tráfico Best Earnings afectado desde C10</t>
+  </si>
+  <si>
+    <t>110268</t>
+  </si>
+  <si>
+    <t>11/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>MX|C12|APP SB|GANA+|error en eleccion de oferta gana+ cod 128647</t>
+  </si>
+  <si>
+    <t>91315</t>
+  </si>
+  <si>
+    <t>06/06/2025 20:51</t>
+  </si>
+  <si>
+    <t>SB2 Pase de Pedidos</t>
+  </si>
+  <si>
+    <t>CORP|C09|SB|PASE DE PEDIDOS|Cs con CUVS que no se muestran en el pedido</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=218964738</t>
+  </si>
+  <si>
+    <t>134503</t>
+  </si>
+  <si>
+    <t>29/10/2025 18:50</t>
+  </si>
+  <si>
+    <t>MX|16|SB|CYD|MENSAJES CORTADOS EN CDRS WEB</t>
+  </si>
+  <si>
+    <t>136601</t>
+  </si>
+  <si>
+    <t>06/11/2025 10:06</t>
+  </si>
+  <si>
+    <t>CO|C17|SB|PASE DE PEDIDOS|Experiencia de tener evento Ofertas del Día no es soportada en Home APP los días en los que la consultora no factura</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/nxXvDQ</t>
+  </si>
+  <si>
+    <t>129808</t>
+  </si>
+  <si>
+    <t>13/10/2025 18:29</t>
+  </si>
+  <si>
+    <t>GT-SV|C15|APP SB|RESERVA DE PEDIDOS|Consultoras sin primer pedido aprobado pueden reservar pedido</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/n0fCDQ</t>
+  </si>
+  <si>
+    <t>117753</t>
+  </si>
+  <si>
+    <t>03/09/2025 14:48</t>
+  </si>
+  <si>
+    <t>SB2 Catálogos y Revistas</t>
+  </si>
+  <si>
+    <t>No se visualiza Revista CX+1</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=226042874</t>
+  </si>
+  <si>
+    <t>115768</t>
+  </si>
+  <si>
+    <t>28/08/2025 10:40</t>
+  </si>
+  <si>
+    <t>PE|C13|SB|PED| Oferta de catálogo tiene diferente experiencia en App vs Web (checkout) y descripción confusa</t>
+  </si>
+  <si>
+    <t>Frank Antonio Piñin Ato</t>
+  </si>
+  <si>
+    <t>131244</t>
+  </si>
+  <si>
+    <t>17/10/2025 12:21</t>
+  </si>
+  <si>
+    <t>SB2 Carrito Sugerido</t>
+  </si>
+  <si>
+    <t>BO|C17|SB|CARRITO SUGERIDO| Cs de C17 no pueden ingresar al carrito</t>
+  </si>
+  <si>
+    <t>134416</t>
+  </si>
+  <si>
+    <t>29/10/2025 15:25</t>
+  </si>
+  <si>
+    <t>SB2 Otros</t>
+  </si>
+  <si>
+    <t>DO-PR|C16|PORTAL FFVV|BUSCAR CONSULTORA|Segmento Rolling de consultoras errado</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/MjbvDQ</t>
+  </si>
+  <si>
+    <t>118597</t>
+  </si>
+  <si>
+    <t>05/09/2025 19:08</t>
+  </si>
+  <si>
+    <t>PE|C13|SB|CATALOGOS Y REVISTAS|no se puede compartir el link ni acceder al catálogo de la siguiente campaña</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=226045258</t>
+  </si>
+  <si>
+    <t>130752</t>
+  </si>
+  <si>
+    <t>15/10/2025 21:21</t>
+  </si>
+  <si>
+    <t>SB2 Matriz/Estrategia</t>
+  </si>
+  <si>
+    <t>SV|C16|SB|MATRIZ ESTRATEGIA|Error en imagen SV C16 SV</t>
+  </si>
+  <si>
+    <t>108227</t>
+  </si>
+  <si>
+    <t>04/08/2025 23:42</t>
+  </si>
+  <si>
+    <t>PE|C12|SB|GANA+|al buscar una oferta de catálogo en el buscador, me aparece 0.35% de descuento cuando debería decir 35%</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/sxk5DQ</t>
+  </si>
+  <si>
+    <t>100311</t>
+  </si>
+  <si>
+    <t>09/07/2025 19:18</t>
+  </si>
+  <si>
+    <t>SB2 Multipedido</t>
+  </si>
+  <si>
+    <t>PE|C11|SB|MULTIPEDIDO|ORDER ADVANCE|Consultoras no visualizan fechas de Order Advance en la sección de Fechas de Campaña</t>
+  </si>
+  <si>
+    <t>140747</t>
+  </si>
+  <si>
+    <t>20/11/2025 19:58</t>
+  </si>
+  <si>
+    <t>SB2 Zona de Todas Ofertas</t>
+  </si>
+  <si>
+    <t>PA|202518| OFERTA SE HA CREADO INCOMPLETA EN SOMOSBELCORP</t>
+  </si>
+  <si>
+    <t>94055</t>
+  </si>
+  <si>
+    <t>17/06/2025 17:07</t>
+  </si>
+  <si>
+    <t>CO|C10|CD|CATALOG|No se actualiza cantidad de catálogos compartidos</t>
+  </si>
+  <si>
+    <t>90717</t>
+  </si>
+  <si>
+    <t>05/06/2025 10:00</t>
+  </si>
+  <si>
+    <t>EC|C9|SB|TIENDAONLINE|ec- CS NO PUDE MODIFICAR LA DESCRIPCION DE SU TIENDA ONLINE</t>
+  </si>
+  <si>
+    <t>124582</t>
+  </si>
+  <si>
+    <t>25/09/2025 07:57</t>
+  </si>
+  <si>
+    <t>SB2 Bonificaciones</t>
+  </si>
+  <si>
+    <t>PE|C15|SB|BONIFICACIONES|Error en visualización de puntaje bonificado en SomosBelcorp</t>
+  </si>
+  <si>
+    <t>Fernando Zavaleta Henriquez - Tismart</t>
+  </si>
+  <si>
+    <t>65248</t>
+  </si>
+  <si>
+    <t>24/02/2025 16:03</t>
+  </si>
+  <si>
+    <t>SB2 Gana Refiriendo</t>
+  </si>
+  <si>
+    <t>MX|C04|SB|GANA REFIRIENDO|No se visualizan la lista de CS referidas para C01</t>
+  </si>
+  <si>
+    <t>121914</t>
+  </si>
+  <si>
+    <t>16/09/2025 16:26</t>
+  </si>
+  <si>
+    <t>CO|C15|SB|MI TIENDA ONLINE|No carga usuario propietario de tienda online de consultora</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>25/06/2024 16:41</t>
+  </si>
+  <si>
+    <t>MX|C10|SB|CATALOGOS Y REVISTAS|Error en envío de confirmación de pedido de catalogo digital</t>
+  </si>
+  <si>
+    <t>124796</t>
+  </si>
+  <si>
+    <t>25/09/2025 12:08</t>
+  </si>
+  <si>
+    <t>PE|C15|SB|BONIFICACIONES|Barra de cálculo de bonificación no toma en cuenta producto de Oferta Final Pack Exclusivo</t>
+  </si>
+  <si>
+    <t>88160</t>
+  </si>
+  <si>
+    <t>27/05/2025 15:54</t>
+  </si>
+  <si>
+    <t>SB2 SAC/ Contenido</t>
+  </si>
+  <si>
+    <t>TODOS|C09|SB|SAC CONTENIDO|no se pueden cargar/mostrar pop ups informativos en somosbelcorp</t>
+  </si>
+  <si>
+    <t>Kevin Alexander Virgilio Rojas - Tismart</t>
+  </si>
+  <si>
+    <t>74314</t>
+  </si>
+  <si>
+    <t>02/04/2025 12:41</t>
+  </si>
+  <si>
+    <t>SB2.0|Ofertas Gana+|| SB WEB | Superposición de textos en G+ landing</t>
+  </si>
+  <si>
+    <t>134881</t>
+  </si>
+  <si>
+    <t>30/10/2025 17:44</t>
+  </si>
+  <si>
+    <t>PE|APP-SB|PASE DE PEDIDOS| ERROR EN SELECCION DE OFERTAS EN WEB C16</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/wRPvDQ</t>
+  </si>
+  <si>
+    <t>140551</t>
+  </si>
+  <si>
+    <t>20/11/2025 12:32</t>
+  </si>
+  <si>
+    <t>CO|C18|SB|MULTIPEDIDO POSTERIOR| No aparece experiencia de MB Posterior configurada para hoy</t>
+  </si>
+  <si>
+    <t>Crítica</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/g1DvDQ</t>
+  </si>
+  <si>
+    <t>72573</t>
+  </si>
+  <si>
+    <t>25/03/2025 20:07</t>
+  </si>
+  <si>
+    <t>CR|C05|SB2.0|Reserva de pedidos| OFERTA DIGITAL|</t>
+  </si>
+  <si>
+    <t>Percy Ulises Molina Abad</t>
+  </si>
+  <si>
+    <t>67704</t>
+  </si>
+  <si>
+    <t>05/03/2025 14:16</t>
+  </si>
+  <si>
+    <t>SV|C04|Error en carga masiva de cuvs en el Gestor de Contenido</t>
+  </si>
+  <si>
+    <t>86443</t>
+  </si>
+  <si>
+    <t>21/05/2025 12:04</t>
+  </si>
+  <si>
+    <t>PE|C09|SB|OFERTAS GANA+|Cards de plataforma se visualiza cortado en web mobile</t>
+  </si>
+  <si>
+    <t>85616</t>
+  </si>
+  <si>
+    <t>19/05/2025 09:03</t>
+  </si>
+  <si>
+    <t>SB2 New Home</t>
+  </si>
+  <si>
+    <t>TODOS|C08|SB|NEW HOME|eventos de analytics no se registran para 3 botones en Web Desktop Somos Belcorp (sección menu)</t>
+  </si>
+  <si>
+    <t>87779</t>
+  </si>
+  <si>
+    <t>26/05/2025 19:30</t>
+  </si>
+  <si>
+    <t>MX CAM |SB| Pago en línea|No permite realizar pago desde SB - Ti País</t>
+  </si>
+  <si>
+    <t>85213</t>
+  </si>
+  <si>
+    <t>15/05/2025 16:41</t>
+  </si>
+  <si>
+    <t>SB2 Login (cuentas de usuario)</t>
+  </si>
+  <si>
+    <t>SB|C08|LOGIN|Botón Ingresa con Facebook</t>
+  </si>
+  <si>
+    <t>143929</t>
+  </si>
+  <si>
+    <t>02/12/2025 11:07</t>
+  </si>
+  <si>
+    <t>PE|C18|SB|MULTIPEDIDOS|Cs no facturó pedido en fecha de adelanto</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/kHvvDQ</t>
+  </si>
+  <si>
+    <t>107418</t>
+  </si>
+  <si>
+    <t>01/08/2025 12:28</t>
+  </si>
+  <si>
+    <t>PE|C12|SB|PASE DE PEDIDOS| Cs no puede reservar el pedido por mto max</t>
+  </si>
+  <si>
+    <t>100265</t>
+  </si>
+  <si>
+    <t>09/07/2025 17:25</t>
+  </si>
+  <si>
+    <t>BO|C11|SB|PAGO EN LÍNEA|Al generar QR se multiplica el monto a pagar</t>
+  </si>
+  <si>
+    <t>110995</t>
+  </si>
+  <si>
+    <t>12/08/2025 19:27</t>
+  </si>
+  <si>
+    <t>PA|C12|SB|PASE DE PEDIDOS|CUV 35496 con monto erróneo en PROL</t>
+  </si>
+  <si>
+    <t>113437</t>
+  </si>
+  <si>
+    <t>20/08/2025 19:41</t>
+  </si>
+  <si>
+    <t>PE|C13|SB|BONIFICACIONES|Cs tiene 6 unidades agregadas de un cuv con precio 0</t>
+  </si>
+  <si>
+    <t>119238</t>
+  </si>
+  <si>
+    <t>09/09/2025 08:11</t>
+  </si>
+  <si>
+    <t>SB2 Programa de Nuevas</t>
+  </si>
+  <si>
+    <t>BO|C13|SB|PROGRAMA DE NUEVAS|Consultora no puede elegir Cuponn de Kit del programa de nuevas</t>
+  </si>
+  <si>
+    <t>138613</t>
+  </si>
+  <si>
+    <t>13/11/2025 09:18</t>
+  </si>
+  <si>
+    <t>SB2 Oferta Final</t>
+  </si>
+  <si>
+    <t>BO|C17|SB|OFERTA FINAL|Pedido Rechazado por monto máximo</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/XUjvDQ</t>
+  </si>
+  <si>
+    <t>132473</t>
+  </si>
+  <si>
+    <t>22/10/2025 12:16</t>
   </si>
   <si>
     <t>SB2 Festivales</t>
   </si>
   <si>
-    <t>CO|C17|SB|FESTIVALES|Productos de portal de Fuerza de Ventas en lista de productos recomendados tienen prioridad de forma errónea</t>
-  </si>
-  <si>
-    <t>130752</t>
-  </si>
-  <si>
-    <t>15/10/2025 21:21</t>
-  </si>
-  <si>
-    <t>SB2 Matriz/Estrategia</t>
-  </si>
-  <si>
-    <t>SV|C16|SB|MATRIZ ESTRATEGIA|Error en imagen SV C16 SV</t>
-  </si>
-  <si>
-    <t>07/11/2025 19:08</t>
-  </si>
-  <si>
-    <t>126314</t>
-  </si>
-  <si>
-    <t>30/09/2025 18:56</t>
-  </si>
-  <si>
-    <t>SB2 Bonificaciones</t>
-  </si>
-  <si>
-    <t>Incidente en Kibana - Errores por campo NULL en usuarios de prueba</t>
-  </si>
-  <si>
-    <t>03/11/2025 15:45</t>
-  </si>
-  <si>
-    <t>Frank Antonio Piñin Ato</t>
-  </si>
-  <si>
-    <t>131244</t>
-  </si>
-  <si>
-    <t>17/10/2025 12:21</t>
-  </si>
-  <si>
-    <t>SB2 Carrito Sugerido</t>
-  </si>
-  <si>
-    <t>BO|C17|SB|CARRITO SUGERIDO| Cs de C17 no pueden ingresar al carrito</t>
-  </si>
-  <si>
-    <t>129808</t>
-  </si>
-  <si>
-    <t>13/10/2025 18:29</t>
-  </si>
-  <si>
-    <t>GT-SV|C15|APP SB|RESERVA DE PEDIDOS|Consultoras sin primer pedido aprobado pueden reservar pedido</t>
-  </si>
-  <si>
-    <t>23/10/2025 16:20</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/n0fCDQ</t>
-  </si>
-  <si>
-    <t>100311</t>
-  </si>
-  <si>
-    <t>09/07/2025 19:18</t>
-  </si>
-  <si>
-    <t>SB2 Multipedido</t>
-  </si>
-  <si>
-    <t>PE|C11|SB|MULTIPEDIDO|ORDER ADVANCE|Consultoras no visualizan fechas de Order Advance en la sección de Fechas de Campaña</t>
-  </si>
-  <si>
-    <t>04/11/2025 18:27</t>
-  </si>
-  <si>
-    <t>118597</t>
-  </si>
-  <si>
-    <t>05/09/2025 19:08</t>
-  </si>
-  <si>
-    <t>SB2 Catálogos y Revistas</t>
-  </si>
-  <si>
-    <t>PE|C13|SB|CATALOGOS Y REVISTAS|no se puede compartir el link ni acceder al catálogo de la siguiente campaña</t>
-  </si>
-  <si>
-    <t>06/11/2025 18:00</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=226045258</t>
-  </si>
-  <si>
-    <t>136583</t>
-  </si>
-  <si>
-    <t>06/11/2025 09:33</t>
-  </si>
-  <si>
-    <t>SB2 Pase de Pedidos</t>
-  </si>
-  <si>
-    <t>PE|C17|SB|PASE DE PEDIDOS|No se visualiza label de Elegir Opción de los productos del Carrusel formado en vista Web Mobile de la sección Ofertas Recomendas para ti</t>
-  </si>
-  <si>
-    <t>108227</t>
-  </si>
-  <si>
-    <t>04/08/2025 23:42</t>
-  </si>
-  <si>
-    <t>PE|C12|SB|GANA+|al buscar una oferta de catálogo en el buscador, me aparece 0.35% de descuento cuando debería decir 35%</t>
-  </si>
-  <si>
-    <t>29/10/2025 18:00</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/sxk5DQ</t>
-  </si>
-  <si>
-    <t>91315</t>
-  </si>
-  <si>
-    <t>06/06/2025 20:51</t>
-  </si>
-  <si>
-    <t>CORP|C09|SB|PASE DE PEDIDOS|Cs con CUVS que no se muestran en el pedido</t>
-  </si>
-  <si>
-    <t>27/10/2025 18:16</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=218964738</t>
-  </si>
-  <si>
-    <t>117753</t>
-  </si>
-  <si>
-    <t>03/09/2025 14:48</t>
-  </si>
-  <si>
-    <t>No se visualiza Revista CX+1</t>
-  </si>
-  <si>
-    <t>31/10/2025 18:00</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=226042874</t>
-  </si>
-  <si>
-    <t>115768</t>
-  </si>
-  <si>
-    <t>28/08/2025 10:40</t>
-  </si>
-  <si>
-    <t>PE|C13|SB|PED| Oferta de catálogo tiene diferente experiencia en App vs Web (checkout) y descripción confusa</t>
-  </si>
-  <si>
-    <t>20/10/2025 09:27</t>
-  </si>
-  <si>
-    <t>126318</t>
-  </si>
-  <si>
-    <t>30/09/2025 19:13</t>
-  </si>
-  <si>
-    <t>Incidente de Performance - Producto SB | SP dbo.CreateOrUpdateConsultoraMultifacturacion</t>
-  </si>
-  <si>
-    <t>03/11/2025 16:27</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/Xn55DQ</t>
-  </si>
-  <si>
-    <t>134503</t>
-  </si>
-  <si>
-    <t>29/10/2025 18:50</t>
-  </si>
-  <si>
-    <t>MX|16|SB|CYD|MENSAJES CORTADOS EN CDRS WEB</t>
-  </si>
-  <si>
-    <t>110268</t>
-  </si>
-  <si>
-    <t>11/08/2025 13:00</t>
-  </si>
-  <si>
-    <t>MX|C12|APP SB|GANA+|error en eleccion de oferta gana+ cod 128647</t>
-  </si>
-  <si>
-    <t>20/10/2025 18:47</t>
-  </si>
-  <si>
-    <t>117423</t>
-  </si>
-  <si>
-    <t>02/09/2025 18:07</t>
-  </si>
-  <si>
-    <t>SB2 Reactivación de Pedidos</t>
-  </si>
-  <si>
-    <t>PE|C13|SB|REACTIVACION DE PEDIDOS|Reactivacion de pedidos no genera detalle de la operacion</t>
-  </si>
-  <si>
-    <t>21/11/2025 09:32</t>
-  </si>
-  <si>
-    <t>2114</t>
-  </si>
-  <si>
-    <t>25/06/2024 16:41</t>
-  </si>
-  <si>
-    <t>MX|C10|SB|CATALOGOS Y REVISTAS|Error en envío de confirmación de pedido de catalogo digital</t>
-  </si>
-  <si>
-    <t>03/11/2025 13:15</t>
-  </si>
-  <si>
-    <t>107512</t>
-  </si>
-  <si>
-    <t>01/08/2025 15:55</t>
-  </si>
-  <si>
-    <t>PE|C12|SB|CAMBIOS Y DEVOLUCIONES|Consultora no puede gestionar reclamo</t>
-  </si>
-  <si>
-    <t>01/12/2025 09:36</t>
-  </si>
-  <si>
-    <t>90717</t>
-  </si>
-  <si>
-    <t>05/06/2025 10:00</t>
-  </si>
-  <si>
-    <t>EC|C9|SB|TIENDAONLINE|ec- CS NO PUDE MODIFICAR LA DESCRIPCION DE SU TIENDA ONLINE</t>
-  </si>
-  <si>
-    <t>30/10/2025 18:30</t>
-  </si>
-  <si>
-    <t>121914</t>
-  </si>
-  <si>
-    <t>16/09/2025 16:26</t>
-  </si>
-  <si>
-    <t>CO|C15|SB|MI TIENDA ONLINE|No carga usuario propietario de tienda online de consultora</t>
-  </si>
-  <si>
-    <t>124582</t>
-  </si>
-  <si>
-    <t>25/09/2025 07:57</t>
-  </si>
-  <si>
-    <t>PE|C15|SB|BONIFICACIONES|Error en visualización de puntaje bonificado en SomosBelcorp</t>
-  </si>
-  <si>
-    <t>05/11/2025 09:27</t>
-  </si>
-  <si>
-    <t>94055</t>
-  </si>
-  <si>
-    <t>17/06/2025 17:07</t>
-  </si>
-  <si>
-    <t>CO|C10|CD|CATALOG|No se actualiza cantidad de catálogos compartidos</t>
-  </si>
-  <si>
-    <t>17/12/2025 09:40</t>
-  </si>
-  <si>
-    <t>Kevin Alexander Virgilio Rojas - Tismart</t>
-  </si>
-  <si>
-    <t>74314</t>
-  </si>
-  <si>
-    <t>02/04/2025 12:41</t>
-  </si>
-  <si>
-    <t>SB2.0|Ofertas Gana+|| SB WEB | Superposición de textos en G+ landing</t>
-  </si>
-  <si>
-    <t>10/11/2025 09:41</t>
-  </si>
-  <si>
-    <t>117358</t>
-  </si>
-  <si>
-    <t>02/09/2025 16:38</t>
-  </si>
-  <si>
-    <t>EC|C13|SB|FESTIVALES|festival de fragancias c13 ec</t>
-  </si>
-  <si>
-    <t>24/11/2025 09:32</t>
-  </si>
-  <si>
-    <t>Edson Ademar Vizcaino Imbaquingo</t>
-  </si>
-  <si>
-    <t>134881</t>
-  </si>
-  <si>
-    <t>30/10/2025 17:44</t>
-  </si>
-  <si>
-    <t>PE|APP-SB|PASE DE PEDIDOS| ERROR EN SELECCION DE OFERTAS EN WEB C16</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/wRPvDQ</t>
-  </si>
-  <si>
-    <t>124796</t>
-  </si>
-  <si>
-    <t>25/09/2025 12:08</t>
-  </si>
-  <si>
-    <t>PE|C15|SB|BONIFICACIONES|Barra de cálculo de bonificación no toma en cuenta producto de Oferta Final Pack Exclusivo</t>
-  </si>
-  <si>
-    <t>03/11/2025 09:22</t>
-  </si>
-  <si>
-    <t>103095</t>
-  </si>
-  <si>
-    <t>18/07/2025 12:04</t>
-  </si>
-  <si>
-    <t>CL|C11|SB|MI TIENDA ONLINE|No se completa el alta de Mi Tienda Online</t>
-  </si>
-  <si>
-    <t>12/12/2025 09:39</t>
-  </si>
-  <si>
-    <t>Fernando Zavaleta Henriquez - Tismart</t>
-  </si>
-  <si>
-    <t>65248</t>
-  </si>
-  <si>
-    <t>24/02/2025 16:03</t>
-  </si>
-  <si>
-    <t>SB2 Gana Refiriendo</t>
-  </si>
-  <si>
-    <t>MX|C04|SB|GANA REFIRIENDO|No se visualizan la lista de CS referidas para C01</t>
-  </si>
-  <si>
-    <t>04/11/2025 18:35</t>
-  </si>
-  <si>
-    <t>88160</t>
-  </si>
-  <si>
-    <t>27/05/2025 15:54</t>
-  </si>
-  <si>
-    <t>SB2 SAC/ Contenido</t>
-  </si>
-  <si>
-    <t>TODOS|C09|SB|SAC CONTENIDO|no se pueden cargar/mostrar pop ups informativos en somosbelcorp</t>
-  </si>
-  <si>
-    <t>07/11/2025 15:51</t>
-  </si>
-  <si>
-    <t>100265</t>
-  </si>
-  <si>
-    <t>09/07/2025 17:25</t>
-  </si>
-  <si>
-    <t>BO|C11|SB|PAGO EN LÍNEA|Al generar QR se multiplica el monto a pagar</t>
-  </si>
-  <si>
-    <t>19/11/2025 09:18</t>
-  </si>
-  <si>
-    <t>113437</t>
-  </si>
-  <si>
-    <t>20/08/2025 19:41</t>
-  </si>
-  <si>
-    <t>PE|C13|SB|BONIFICACIONES|Cs tiene 6 unidades agregadas de un cuv con precio 0</t>
-  </si>
-  <si>
-    <t>26/11/2025 09:33</t>
-  </si>
-  <si>
-    <t>110995</t>
-  </si>
-  <si>
-    <t>12/08/2025 19:27</t>
-  </si>
-  <si>
-    <t>PA|C12|SB|PASE DE PEDIDOS|CUV 35496 con monto erróneo en PROL</t>
-  </si>
-  <si>
-    <t>26/11/2025 09:34</t>
-  </si>
-  <si>
-    <t>113356</t>
-  </si>
-  <si>
-    <t>20/08/2025 16:19</t>
-  </si>
-  <si>
-    <t>SB2 Login (cuentas de usuario)</t>
-  </si>
-  <si>
-    <t>CP/api/login – Inconsistencia en respuesta: campo paisISO se devuelve de forma intermitente</t>
-  </si>
-  <si>
-    <t>03/11/2025 19:53</t>
-  </si>
-  <si>
-    <t>110818</t>
-  </si>
-  <si>
-    <t>12/08/2025 13:51</t>
-  </si>
-  <si>
-    <t>MX|C12|SB|FESTIVALES|Festival Esika mx C12</t>
-  </si>
-  <si>
-    <t>107418</t>
-  </si>
-  <si>
-    <t>01/08/2025 12:28</t>
-  </si>
-  <si>
-    <t>PE|C12|SB|PASE DE PEDIDOS| Cs no puede reservar el pedido por mto max</t>
-  </si>
-  <si>
-    <t>04/12/2025 09:37</t>
-  </si>
-  <si>
-    <t>119238</t>
-  </si>
-  <si>
-    <t>09/09/2025 08:11</t>
-  </si>
-  <si>
-    <t>SB2 Programa de Nuevas</t>
-  </si>
-  <si>
-    <t>BO|C13|SB|PROGRAMA DE NUEVAS|Consultora no puede elegir Cuponn de Kit del programa de nuevas</t>
-  </si>
-  <si>
-    <t>14/11/2025 09:30</t>
-  </si>
-  <si>
-    <t>85213</t>
-  </si>
-  <si>
-    <t>15/05/2025 16:41</t>
-  </si>
-  <si>
-    <t>SB|C08|LOGIN|Botón Ingresa con Facebook</t>
-  </si>
-  <si>
-    <t>19/11/2025 09:39</t>
-  </si>
-  <si>
-    <t>Eddy David Mendoza Yamunaque - Tismart</t>
-  </si>
-  <si>
-    <t>94217</t>
-  </si>
-  <si>
-    <t>18/06/2025 11:11</t>
-  </si>
-  <si>
-    <t>ALL|C10|NEW APP|PASE DE PEDIDOS| Kit de Inicio con mas de una unidad en el pedido</t>
-  </si>
-  <si>
-    <t>17/11/2025 18:19</t>
+    <t>CO|C16|SB|FESTIVALES|No permite elegir el Pack de Festival Cyzone de Nivel 2</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/VXjvDQ</t>
+  </si>
+  <si>
+    <t>144818</t>
+  </si>
+  <si>
+    <t>04/12/2025 09:56</t>
+  </si>
+  <si>
+    <t>PE|C18|SB|PASE DE PEDIDO|Pedido con cuv no visible en somos belcorp</t>
+  </si>
+  <si>
+    <t>144913</t>
+  </si>
+  <si>
+    <t>04/12/2025 11:40</t>
+  </si>
+  <si>
+    <t>EC|C18|SB|BONIFICACIONES|Consultora con doble bonificación</t>
+  </si>
+  <si>
+    <t>143115</t>
+  </si>
+  <si>
+    <t>PE|C18|SB|PASE DE PEDIDOS|CUVS con pedidodetalleid que no coinciden</t>
   </si>
   <si>
     <t>93624</t>
@@ -1337,67 +1178,19 @@
     <t>PE|C09|SB|LOGIN| CS 052360315 no factura a pesar de prepagar lo indicado</t>
   </si>
   <si>
-    <t>26/11/2025 15:35</t>
-  </si>
-  <si>
-    <t>87779</t>
-  </si>
-  <si>
-    <t>26/05/2025 19:30</t>
-  </si>
-  <si>
-    <t>MX CAM |SB| Pago en línea|No permite realizar pago desde SB - Ti País</t>
-  </si>
-  <si>
-    <t>10/11/2025 09:52</t>
-  </si>
-  <si>
-    <t>113359</t>
-  </si>
-  <si>
-    <t>20/08/2025 16:25</t>
-  </si>
-  <si>
-    <t>PR|C09|SB|FESTIVALES|Consultora impedida de reservar pedido de premio de festival</t>
-  </si>
-  <si>
-    <t>85616</t>
-  </si>
-  <si>
-    <t>19/05/2025 09:03</t>
-  </si>
-  <si>
-    <t>SB2 New Home</t>
-  </si>
-  <si>
-    <t>TODOS|C08|SB|NEW HOME|eventos de analytics no se registran para 3 botones en Web Desktop Somos Belcorp (sección menu)</t>
-  </si>
-  <si>
-    <t>14/11/2025 10:30</t>
-  </si>
-  <si>
-    <t>86443</t>
-  </si>
-  <si>
-    <t>21/05/2025 12:04</t>
-  </si>
-  <si>
-    <t>PE|C09|SB|OFERTAS GANA+|Cards de plataforma se visualiza cortado en web mobile</t>
-  </si>
-  <si>
-    <t>10/11/2025 17:00</t>
-  </si>
-  <si>
-    <t>117768</t>
-  </si>
-  <si>
-    <t>03/09/2025 15:16</t>
-  </si>
-  <si>
-    <t>MX|APPSB|C13|FESTIVAL| Contador de festivel C14 con monto errado</t>
-  </si>
-  <si>
-    <t>17/11/2025 09:31</t>
+    <t>Raiza Sofia Carpio Luna - Tismart</t>
+  </si>
+  <si>
+    <t>92474</t>
+  </si>
+  <si>
+    <t>11/06/2025 15:55</t>
+  </si>
+  <si>
+    <t>CO|C09|SB|PROGRAMA DE NUEVAS|Consultora no puede eliminar cupón del programa de nuevas</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/h8zLD</t>
   </si>
   <si>
     <t>128201</t>
@@ -1409,202 +1202,271 @@
     <t>PE|C15|SB|SAC CONTENIDO|error de carga de cuv para administración de gestion de faltantes</t>
   </si>
   <si>
-    <t>31/10/2025 16:30</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/x/yxrCDQ</t>
   </si>
   <si>
-    <t>Percy Ulises Molina Abad</t>
-  </si>
-  <si>
-    <t>67704</t>
-  </si>
-  <si>
-    <t>05/03/2025 14:16</t>
-  </si>
-  <si>
-    <t>SB2 Zona de Todas Ofertas</t>
-  </si>
-  <si>
-    <t>SV|C04|Error en carga masiva de cuvs en el Gestor de Contenido</t>
-  </si>
-  <si>
-    <t>30/10/2025 09:52</t>
-  </si>
-  <si>
-    <t>132473</t>
-  </si>
-  <si>
-    <t>22/10/2025 12:16</t>
-  </si>
-  <si>
-    <t>CO|C16|SB|FESTIVALES|No permite elegir el Pack de Festival Cyzone de Nivel 2</t>
-  </si>
-  <si>
-    <t>72573</t>
-  </si>
-  <si>
-    <t>25/03/2025 20:07</t>
-  </si>
-  <si>
-    <t>CR|C05|SB2.0|Reserva de pedidos| OFERTA DIGITAL|</t>
-  </si>
-  <si>
-    <t>21/11/2025 09:42</t>
-  </si>
-  <si>
-    <t>Raiza Sofia Carpio Luna - Tismart</t>
-  </si>
-  <si>
-    <t>92474</t>
-  </si>
-  <si>
-    <t>11/06/2025 15:55</t>
-  </si>
-  <si>
-    <t>CO|C09|SB|PROGRAMA DE NUEVAS|Consultora no puede eliminar cupón del programa de nuevas</t>
-  </si>
-  <si>
-    <t>20/10/2025 18:29</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/h8zLD</t>
-  </si>
-  <si>
-    <t>16299</t>
-  </si>
-  <si>
-    <t>07/08/2024 19:08</t>
-  </si>
-  <si>
-    <t>CR|C12|SB|RESERVA DE PEDIDOS|Pedido con error producto con 0 unidades no debe mostrarse en el detalle</t>
-  </si>
-  <si>
-    <t>12/11/2025 09:52</t>
-  </si>
-  <si>
-    <t>107840</t>
-  </si>
-  <si>
-    <t>04/08/2025 10:47</t>
-  </si>
-  <si>
-    <t>CO|C11|SB|PASE DE PEDIDOS|Consultoras se encuentran en campaña errónea</t>
-  </si>
-  <si>
-    <t>01/12/2025 09:35</t>
-  </si>
-  <si>
     <t>Unete 2.0</t>
   </si>
   <si>
-    <t>135008</t>
-  </si>
-  <si>
-    <t>31/10/2025 10:33</t>
+    <t>132952</t>
+  </si>
+  <si>
+    <t>23/10/2025 16:08</t>
+  </si>
+  <si>
+    <t>Unete Generación de código</t>
+  </si>
+  <si>
+    <t>PE|C16|UNETE2.0|En Generando codigo</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230831994</t>
+  </si>
+  <si>
+    <t>70238</t>
+  </si>
+  <si>
+    <t>14/03/2025 13:39</t>
+  </si>
+  <si>
+    <t>PA|C05|UNETE2|GENERACIONDECODIGO| POSTULANTE PA GENERANDO CODIGO</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/display/RSB/70238+PA%7CC05%7CUNETE2%7CGENERACIONDECODIGO%7C+POSTULANTE+PA+GENERANDO+CODIGO</t>
+  </si>
+  <si>
+    <t>125809</t>
+  </si>
+  <si>
+    <t>29/09/2025 17:55</t>
+  </si>
+  <si>
+    <t>Unete Buro</t>
+  </si>
+  <si>
+    <t>CO|C15|UNETE2|BURO|Error en proceso CS con bloqueo y deuda y el sistema le permitio relaizar incorporación</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230819238</t>
+  </si>
+  <si>
+    <t>109049</t>
+  </si>
+  <si>
+    <t>06/08/2025 15:52</t>
+  </si>
+  <si>
+    <t>Unete Gestiona Postulante</t>
+  </si>
+  <si>
+    <t>MX|C12|UNETE2|GESTIONA POSTULANTE| No se actualiza la información de la ubicación</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/yXF5DQ</t>
+  </si>
+  <si>
+    <t>119653</t>
+  </si>
+  <si>
+    <t>09/09/2025 16:48</t>
+  </si>
+  <si>
+    <t>Unete Belcorp Validación</t>
+  </si>
+  <si>
+    <t>SV|C13|UNETE2|BELCORP VALIDACION|Falla en firma</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/x/RnR5DQ</t>
+  </si>
+  <si>
+    <t>125944</t>
+  </si>
+  <si>
+    <t>30/09/2025 09:54</t>
+  </si>
+  <si>
+    <t>Unete Carga de documentos</t>
+  </si>
+  <si>
+    <t>PE|UNETE2.0| Error en migracion de documentos UNETE</t>
+  </si>
+  <si>
+    <t>134908</t>
+  </si>
+  <si>
+    <t>30/10/2025 19:30</t>
+  </si>
+  <si>
+    <t>Unete Validación Pin</t>
+  </si>
+  <si>
+    <t>CO|U2| - error en validacion de Pin telefonico unete 2.0 - TI PAÍS</t>
+  </si>
+  <si>
+    <t>129816</t>
+  </si>
+  <si>
+    <t>13/10/2025 19:25</t>
+  </si>
+  <si>
+    <t>Unete Actualizar Información</t>
+  </si>
+  <si>
+    <t>ALL|UNETE 2.0|POSTULANTE RECHAZADA ACTIVA EN UNETE SV</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230830283</t>
+  </si>
+  <si>
+    <t>127599</t>
+  </si>
+  <si>
+    <t>04/10/2025 09:22</t>
+  </si>
+  <si>
+    <t>ALL|C15|UNETE2|ACTUALIZAR INFORMACION|CS ACTIVA NO LE PERMITE ACCESO A PORTAL SB</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230824780</t>
+  </si>
+  <si>
+    <t>126767</t>
+  </si>
+  <si>
+    <t>01/10/2025 18:05</t>
+  </si>
+  <si>
+    <t>CR|C15|UNETE2|GENERACION DE CODIGO|POSTULANTE GENERANDO CODIGO 701950060</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230819206</t>
+  </si>
+  <si>
+    <t>73005</t>
+  </si>
+  <si>
+    <t>27/03/2025 13:01</t>
   </si>
   <si>
     <t>Unete Zonificación</t>
   </si>
   <si>
-    <t>GT|C16|U2|ZONIFICACION|Filtros de datos al subir archivo en Carga de Niveles Geográficos no se están aplicando</t>
-  </si>
-  <si>
-    <t>132952</t>
-  </si>
-  <si>
-    <t>23/10/2025 16:08</t>
-  </si>
-  <si>
-    <t>Unete Generación de código</t>
-  </si>
-  <si>
-    <t>PE|C16|UNETE2.0|En Generando codigo</t>
-  </si>
-  <si>
-    <t>109049</t>
-  </si>
-  <si>
-    <t>06/08/2025 15:52</t>
-  </si>
-  <si>
-    <t>Unete Gestiona Postulante</t>
-  </si>
-  <si>
-    <t>MX|C12|UNETE2|GESTIONA POSTULANTE| No se actualiza la información de la ubicación</t>
-  </si>
-  <si>
-    <t>19/01/2026 18:49</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/yXF5DQ</t>
-  </si>
-  <si>
-    <t>125809</t>
-  </si>
-  <si>
-    <t>29/09/2025 17:55</t>
-  </si>
-  <si>
-    <t>Unete Buro</t>
-  </si>
-  <si>
-    <t>CO|C15|UNETE2|BURO|Error en proceso CS con bloqueo y deuda y el sistema le permitio relaizar incorporación</t>
-  </si>
-  <si>
-    <t>19/01/2026 18:16</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230819238</t>
-  </si>
-  <si>
-    <t>70238</t>
-  </si>
-  <si>
-    <t>14/03/2025 13:39</t>
-  </si>
-  <si>
-    <t>PA|C05|UNETE2|GENERACIONDECODIGO| POSTULANTE PA GENERANDO CODIGO</t>
-  </si>
-  <si>
-    <t>19/01/2026 17:42</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/display/RSB/70238+PA%7CC05%7CUNETE2%7CGENERACIONDECODIGO%7C+POSTULANTE+PA+GENERANDO+CODIGO</t>
-  </si>
-  <si>
-    <t>119653</t>
-  </si>
-  <si>
-    <t>09/09/2025 16:48</t>
-  </si>
-  <si>
-    <t>Unete Belcorp Validación</t>
-  </si>
-  <si>
-    <t>SV|C13|UNETE2|BELCORP VALIDACION|Falla en firma</t>
-  </si>
-  <si>
-    <t>19/01/2026 09:41</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/x/RnR5DQ</t>
-  </si>
-  <si>
-    <t>125944</t>
-  </si>
-  <si>
-    <t>30/09/2025 09:54</t>
-  </si>
-  <si>
-    <t>Unete Carga de documentos</t>
-  </si>
-  <si>
-    <t>PE|UNETE2.0| Error en migracion de documentos UNETE</t>
-  </si>
-  <si>
-    <t>30/10/2025 16:27</t>
+    <t>CO|C06|ÚNETE2|ZONIFICACION|Retroceso de procesos</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=208217907</t>
+  </si>
+  <si>
+    <t>135901</t>
+  </si>
+  <si>
+    <t>04/11/2025 15:22</t>
+  </si>
+  <si>
+    <t>MX|UNETE2.0|Incidente en la plataforma UNETE-GESTIÓN DE POSTULANTE para México</t>
+  </si>
+  <si>
+    <t>115190</t>
+  </si>
+  <si>
+    <t>26/08/2025 19:45</t>
+  </si>
+  <si>
+    <t>CO|C13|UNETE2|GESTIONA POSTULANTE|No deja gestionar registro en unete ya que no tiene TIPO DE DOCUMENTO</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=226064754</t>
+  </si>
+  <si>
+    <t>115990</t>
+  </si>
+  <si>
+    <t>28/08/2025 17:31</t>
+  </si>
+  <si>
+    <t>CO|UNETE 2.0|VINCULACIONES REACTIVADAS * ERROR BURO</t>
+  </si>
+  <si>
+    <t>114044</t>
+  </si>
+  <si>
+    <t>22/08/2025 12:56</t>
+  </si>
+  <si>
+    <t>ALL|C12|UNETE2|GENERACION DE CODIGO| Nueva generando código</t>
+  </si>
+  <si>
+    <t>44957</t>
+  </si>
+  <si>
+    <t>02/12/2024 15:02</t>
+  </si>
+  <si>
+    <t>ALL|C17|UNETE2|INGRESOS| No muestra información de nuevas</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=194642967</t>
+  </si>
+  <si>
+    <t>78159</t>
+  </si>
+  <si>
+    <t>17/04/2025 16:40</t>
+  </si>
+  <si>
+    <t>EC|C06|UNETE2|GENERACIONDECODIGO| Aunque se actualice la clave no deja ingresar</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/display/RSB/SDP-78159+EC%7CC06%7CUNETE2%7CGENERACIONDECODIGO%7C+Aunque+se+actualice+clave%2C+no+deja+ingresar</t>
+  </si>
+  <si>
+    <t>55278</t>
+  </si>
+  <si>
+    <t>15/01/2025 17:36</t>
+  </si>
+  <si>
+    <t>Unete Sesion Modo Prueba</t>
+  </si>
+  <si>
+    <t>PE|C02|APP ELC|LOGIN|Consultora no puede ingresar al App Esika Conmigo</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/display/RSB/RCA+SDP-55278+PE%7CC02%7CAPP+ELC%7CLOGIN%7CConsultora+no+puede+ingresar+al+App+Esika+Conmigo</t>
+  </si>
+  <si>
+    <t>69871</t>
+  </si>
+  <si>
+    <t>13/03/2025 12:49</t>
+  </si>
+  <si>
+    <t>CAM|C05|UNETE2|INGRESOS| NO PERMITE MODIFICACION PARA DATOS DE POSTULANTES DESDE APP</t>
+  </si>
+  <si>
+    <t>23902</t>
+  </si>
+  <si>
+    <t>05/09/2024 15:00</t>
+  </si>
+  <si>
+    <t>ALL|C13|UNETE2|INGRESOS|cs con deuda antigua permite vinculación. - CASO PADRE</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=181987691</t>
+  </si>
+  <si>
+    <t>70929</t>
+  </si>
+  <si>
+    <t>18/03/2025 11:47</t>
+  </si>
+  <si>
+    <t>ALL|C04|UNETE2|INGRESOS|cs 1002051 sin ingrso a somos belcorp</t>
+  </si>
+  <si>
+    <t>https://confluence.belcorp.biz/display/RSB/RCA+SDP-70929+ALL%7CC04%7CUNETE2%7CINGRESOS%7Ccs+1002051+sin+ingrso+a+somos+belcorp</t>
   </si>
   <si>
     <t>94008</t>
@@ -1616,225 +1478,18 @@
     <t>ALL|C10|UNETE2|GENERACION DE CODIGO|postulante generando código por falta de fecha de nacimiento</t>
   </si>
   <si>
-    <t>19/01/2026 16:10</t>
-  </si>
-  <si>
-    <t>134908</t>
-  </si>
-  <si>
-    <t>30/10/2025 19:30</t>
-  </si>
-  <si>
-    <t>Unete Validación Pin</t>
-  </si>
-  <si>
-    <t>CO|U2| - error en validacion de Pin telefonico unete 2.0 - TI PAÍS</t>
-  </si>
-  <si>
-    <t>127599</t>
-  </si>
-  <si>
-    <t>04/10/2025 09:22</t>
-  </si>
-  <si>
-    <t>Unete Actualizar Información</t>
-  </si>
-  <si>
-    <t>ALL|C15|UNETE2|ACTUALIZAR INFORMACION|CS ACTIVA NO LE PERMITE ACCESO A PORTAL SB</t>
-  </si>
-  <si>
-    <t>19/01/2026 16:17</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230824780</t>
-  </si>
-  <si>
-    <t>115190</t>
-  </si>
-  <si>
-    <t>26/08/2025 19:45</t>
-  </si>
-  <si>
-    <t>CO|C13|UNETE2|GESTIONA POSTULANTE|No deja gestionar registro en unete ya que no tiene TIPO DE DOCUMENTO</t>
-  </si>
-  <si>
-    <t>19/01/2026 16:28</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=226064754</t>
-  </si>
-  <si>
-    <t>126767</t>
-  </si>
-  <si>
-    <t>01/10/2025 18:05</t>
-  </si>
-  <si>
-    <t>CR|C15|UNETE2|GENERACION DE CODIGO|POSTULANTE GENERANDO CODIGO 701950060</t>
-  </si>
-  <si>
-    <t>19/01/2026 13:17</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230819206</t>
-  </si>
-  <si>
-    <t>135967</t>
-  </si>
-  <si>
-    <t>04/11/2025 16:47</t>
-  </si>
-  <si>
-    <t>CO-|ps|UNETE 2.0| en gestión servicio al cliente con todas las validaciones</t>
-  </si>
-  <si>
-    <t>78159</t>
-  </si>
-  <si>
-    <t>17/04/2025 16:40</t>
-  </si>
-  <si>
-    <t>EC|C06|UNETE2|GENERACIONDECODIGO| Aunque se actualice la clave no deja ingresar</t>
-  </si>
-  <si>
-    <t>26/11/2025 17:58</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/display/RSB/SDP-78159+EC%7CC06%7CUNETE2%7CGENERACIONDECODIGO%7C+Aunque+se+actualice+clave%2C+no+deja+ingresar</t>
-  </si>
-  <si>
-    <t>104273</t>
-  </si>
-  <si>
-    <t>22/07/2025 15:23</t>
-  </si>
-  <si>
-    <t>CL|UNETE2|CARGA DE DOCUMENTOS| Error al descargar archivo de zonificación en Somosbelcorp ingresando como usuario de SAC</t>
-  </si>
-  <si>
-    <t>03/11/2025 23:18</t>
-  </si>
-  <si>
-    <t>69871</t>
-  </si>
-  <si>
-    <t>13/03/2025 12:49</t>
-  </si>
-  <si>
-    <t>CAM|C05|UNETE2|INGRESOS| NO PERMITE MODIFICACION PARA DATOS DE POSTULANTES DESDE APP</t>
-  </si>
-  <si>
-    <t>19/01/2026 17:45</t>
-  </si>
-  <si>
-    <t>55278</t>
-  </si>
-  <si>
-    <t>15/01/2025 17:36</t>
-  </si>
-  <si>
-    <t>Unete Sesion Modo Prueba</t>
-  </si>
-  <si>
-    <t>PE|C02|APP ELC|LOGIN|Consultora no puede ingresar al App Esika Conmigo</t>
-  </si>
-  <si>
-    <t>26/11/2025 14:23</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/display/RSB/RCA+SDP-55278+PE%7CC02%7CAPP+ELC%7CLOGIN%7CConsultora+no+puede+ingresar+al+App+Esika+Conmigo</t>
-  </si>
-  <si>
-    <t>70929</t>
-  </si>
-  <si>
-    <t>18/03/2025 11:47</t>
-  </si>
-  <si>
-    <t>ALL|C04|UNETE2|INGRESOS|cs 1002051 sin ingrso a somos belcorp</t>
-  </si>
-  <si>
-    <t>26/11/2025 18:00</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/display/RSB/RCA+SDP-70929+ALL%7CC04%7CUNETE2%7CINGRESOS%7Ccs+1002051+sin+ingrso+a+somos+belcorp</t>
-  </si>
-  <si>
-    <t>114044</t>
-  </si>
-  <si>
-    <t>22/08/2025 12:56</t>
-  </si>
-  <si>
-    <t>ALL|C12|UNETE2|GENERACION DE CODIGO| Nueva generando código</t>
-  </si>
-  <si>
-    <t>19/01/2026 09:37</t>
-  </si>
-  <si>
-    <t>23902</t>
-  </si>
-  <si>
-    <t>05/09/2024 15:00</t>
-  </si>
-  <si>
-    <t>ALL|C13|UNETE2|INGRESOS|cs con deuda antigua permite vinculación. - CASO PADRE</t>
-  </si>
-  <si>
-    <t>26/11/2025 13:22</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=181987691</t>
-  </si>
-  <si>
-    <t>44957</t>
-  </si>
-  <si>
-    <t>02/12/2024 15:02</t>
-  </si>
-  <si>
-    <t>SV|C17|UNETE2|INGRESOS| No muestra información de nuevas</t>
-  </si>
-  <si>
-    <t>19/01/2026 13:23</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=194642967</t>
-  </si>
-  <si>
-    <t>73005</t>
-  </si>
-  <si>
-    <t>27/03/2025 13:01</t>
-  </si>
-  <si>
-    <t>CO|C06|ÚNETE2|ZONIFICACION|Retroceso de procesos</t>
-  </si>
-  <si>
-    <t>19/01/2026 17:44</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=208217907</t>
-  </si>
-  <si>
-    <t>129816</t>
-  </si>
-  <si>
-    <t>13/10/2025 19:25</t>
-  </si>
-  <si>
-    <t>ALL|UNETE 2.0|POSTULANTE RECHAZADA ACTIVA EN UNETE SV</t>
-  </si>
-  <si>
-    <t>19/01/2026 15:37</t>
-  </si>
-  <si>
-    <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230830283</t>
-  </si>
-  <si>
     <t>Unete 3.0</t>
   </si>
   <si>
+    <t>115273</t>
+  </si>
+  <si>
+    <t>27/08/2025 08:55</t>
+  </si>
+  <si>
+    <t>CORP|UNETE4| Proactiva finalizada en keynua y figura pendiente identidad en somos belcorp por reingreso del mismo día</t>
+  </si>
+  <si>
     <t>107188</t>
   </si>
   <si>
@@ -1847,7 +1502,13 @@
     <t>CO|UNETE3|VALIDACIÓN IDENTIDAD| - PS EN ESTADO PENDIENTE DE INDENTIDAD YA CARGO DOCS</t>
   </si>
   <si>
-    <t>05/11/2025 09:24</t>
+    <t>125043</t>
+  </si>
+  <si>
+    <t>26/09/2025 09:28</t>
+  </si>
+  <si>
+    <t>CO|U2|CONSULTORAS CON CODIGO SIN VALIDACION DE LISTAS RESTRICTIVAS *215 CASOS</t>
   </si>
   <si>
     <t>122848</t>
@@ -1859,24 +1520,9 @@
     <t>ALL|C14|UNETE3|ACTUALIZAR INFORMACION| GR, Listado de PS Proactivas se visualizan PS sin nombres</t>
   </si>
   <si>
-    <t>19/01/2026 09:42</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230825879</t>
   </si>
   <si>
-    <t>115273</t>
-  </si>
-  <si>
-    <t>27/08/2025 08:55</t>
-  </si>
-  <si>
-    <t>CORP|UNETE4| Proactiva finalizada en keynua y figura pendiente identidad en somos belcorp por reingreso del mismo día</t>
-  </si>
-  <si>
-    <t>05/11/2025 09:29</t>
-  </si>
-  <si>
     <t>77709</t>
   </si>
   <si>
@@ -1889,18 +1535,6 @@
     <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=208237799</t>
   </si>
   <si>
-    <t>125043</t>
-  </si>
-  <si>
-    <t>26/09/2025 09:28</t>
-  </si>
-  <si>
-    <t>CO|U2|CONSULTORAS CON CODIGO SIN VALIDACION DE LISTAS RESTRICTIVAS *215 CASOS</t>
-  </si>
-  <si>
-    <t>08/11/2025 09:44</t>
-  </si>
-  <si>
     <t>64909</t>
   </si>
   <si>
@@ -1910,9 +1544,6 @@
     <t>BO|C04|UNETE3|GENERACIONDECODIGO| POSTULANTE NO PUEDE CONCLUIR REGISTRO VÍA 4.0</t>
   </si>
   <si>
-    <t>26/11/2025 13:30</t>
-  </si>
-  <si>
     <t>102507</t>
   </si>
   <si>
@@ -1922,9 +1553,6 @@
     <t>CL|UNETE3|VALIDACIÓN| Error en registro de CC 188297994</t>
   </si>
   <si>
-    <t>28/11/2025 09:42</t>
-  </si>
-  <si>
     <t>76237</t>
   </si>
   <si>
@@ -1934,9 +1562,6 @@
     <t>ALL|UNETE3|Creaciones con el mismo nro de celular</t>
   </si>
   <si>
-    <t>27/10/2025 17:49</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/display/RSB/SDP-76237+PE%7CUNETE3%7CCreaciones+con+el+mismo+nro+de+celular</t>
   </si>
   <si>
@@ -1949,9 +1574,6 @@
     <t>EC|C15|UNETE3|Generación de Reporte en Unidad Administrativa 2207H muestra consultoras con Documento de Identidad vacíos.</t>
   </si>
   <si>
-    <t>27/10/2025 13:28</t>
-  </si>
-  <si>
     <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=189667680</t>
   </si>
   <si>
@@ -1962,9 +1584,6 @@
   </si>
   <si>
     <t>CO|UNETE 3.0|PS CON REGISTRO DOBLE EN SB NO PERMITE AVANZAR EN LA VINCULACIÓN</t>
-  </si>
-  <si>
-    <t>19/01/2026 09:40</t>
   </si>
   <si>
     <t>https://confluence.belcorp.biz/pages/viewpage.action?pageId=230820057</t>
@@ -2417,10 +2036,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2541,17 +2160,17 @@
         <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -2560,10 +2179,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
@@ -2572,127 +2191,127 @@
         <v>17</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1">
+    <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="42" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -2702,1181 +2321,1181 @@
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="66.95" customHeight="1">
+    <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+    <row r="12" spans="1:13" ht="66.95" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
+    <row r="15" spans="1:13" ht="42" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:13" ht="66.95" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="K20" s="4" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
+    <row r="21" spans="1:13" ht="42" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="J24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="42" customHeight="1">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="66.95" customHeight="1">
+    <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+    <row r="29" spans="1:13" ht="66.95" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K29" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+    <row r="30" spans="1:13" ht="42" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="42" customHeight="1">
+    <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
+    <row r="32" spans="1:13" ht="42" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="42" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="42" customHeight="1">
+    <row r="36" spans="1:13" ht="30" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="42" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="42" customHeight="1">
+    <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1">
+    <row r="39" spans="1:13" ht="66.95" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="M39" s="1"/>
     </row>
@@ -3886,108 +3505,108 @@
         <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="66.95" customHeight="1">
+    <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="M42" s="1"/>
     </row>
@@ -3997,3329 +3616,3033 @@
         <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="4" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1">
+    <row r="45" spans="1:13" ht="42" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="4" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="42" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="4" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="42" customHeight="1">
+    <row r="47" spans="1:13" ht="30" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="4" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="4" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="42" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="4" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="K49" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="30" customHeight="1">
+    <row r="51" spans="1:13" ht="42" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="4" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="30" customHeight="1">
+    <row r="52" spans="1:13" ht="42" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="4" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" ht="42" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" ht="42" customHeight="1">
+    <row r="55" spans="1:13" ht="30" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="4" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" ht="54.95" customHeight="1">
+    <row r="56" spans="1:13" ht="42" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="J56" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>339</v>
+        <v>33</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" ht="42" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" ht="42" customHeight="1">
+    <row r="58" spans="1:13" ht="30" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" ht="42" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" ht="42" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="4" t="s">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>326</v>
+        <v>33</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="4" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" ht="30" customHeight="1">
+    <row r="63" spans="1:13" ht="42" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="4" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" ht="42" customHeight="1">
+    <row r="64" spans="1:13" ht="30" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="4" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>87</v>
+        <v>289</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="4" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="4" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="42" customHeight="1">
+    <row r="67" spans="1:13" ht="30" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="4" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="30" customHeight="1">
+    <row r="68" spans="1:13" ht="42" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="4" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" ht="30" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" ht="30" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="4" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="1:13" ht="30" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="4" t="s">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>367</v>
+        <v>33</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="72" spans="1:13" ht="30" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="4" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>380</v>
+        <v>33</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="4" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" ht="42" customHeight="1">
+    <row r="74" spans="1:13" ht="30" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="4" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>402</v>
+        <v>331</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" ht="30" customHeight="1">
+    <row r="76" spans="1:13" ht="42" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="4" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" ht="30" customHeight="1">
+    <row r="78" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="4" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" ht="30" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="4" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>407</v>
+        <v>33</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" ht="30" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="4" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="4" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>410</v>
+        <v>67</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="82" spans="1:13" ht="30" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="4" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="4" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>422</v>
+        <v>229</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" ht="30" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="4" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>267</v>
+        <v>361</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="85" spans="1:13" ht="30" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="F85" s="4" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>428</v>
+        <v>33</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" ht="30" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>454</v>
+        <v>368</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>455</v>
+        <v>369</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>267</v>
+        <v>370</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>456</v>
+        <v>371</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>457</v>
+        <v>33</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>35</v>
+        <v>372</v>
       </c>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" ht="30" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="4" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>410</v>
+        <v>229</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>437</v>
+        <v>33</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" ht="30" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="4" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>441</v>
+        <v>33</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="4" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>470</v>
+        <v>155</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>471</v>
+        <v>380</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="1:13" ht="42" customHeight="1">
+    <row r="90" spans="1:13" ht="30" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="4" t="s">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>449</v>
+        <v>20</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" ht="30" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="4" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" ht="30" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="4" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>486</v>
+        <v>389</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="1:13" ht="30" customHeight="1">
+    <row r="93" spans="1:13" ht="42" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="4" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>461</v>
+        <v>33</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="1:13" ht="30" customHeight="1">
+    <row r="94" spans="1:13" ht="80.099999999999994" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="4" t="s">
-        <v>463</v>
+        <v>185</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>466</v>
+        <v>396</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>468</v>
+        <v>20</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>35</v>
+        <v>402</v>
       </c>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" ht="30" customHeight="1">
+    <row r="95" spans="1:13" ht="42" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="4" t="s">
-        <v>279</v>
+        <v>54</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>492</v>
+        <v>404</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>493</v>
+        <v>405</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>494</v>
+        <v>406</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>35</v>
+        <v>407</v>
       </c>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>472</v>
+        <v>408</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>475</v>
+        <v>20</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>35</v>
+        <v>412</v>
       </c>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="4" t="s">
-        <v>476</v>
+        <v>22</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>477</v>
+        <v>413</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13" ht="42" customHeight="1">
+    <row r="98" spans="1:13" ht="30" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="4" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>485</v>
+        <v>20</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>512</v>
+        <v>423</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>514</v>
+        <v>33</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>515</v>
+        <v>33</v>
       </c>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" ht="42" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>522</v>
+        <v>426</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>524</v>
+        <v>428</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>525</v>
+        <v>429</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" ht="17.100000000000001" customHeight="1">
+    <row r="101" spans="1:13" ht="42" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:13" ht="30" customHeight="1">
+    <row r="102" spans="1:13" ht="42" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="4" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>503</v>
+        <v>20</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="1:13" ht="42" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>509</v>
+        <v>20</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:13" ht="80.099999999999994" customHeight="1">
+    <row r="104" spans="1:13" ht="30" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="4" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>532</v>
+        <v>445</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>533</v>
+        <v>410</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>534</v>
+        <v>446</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13" ht="30" customHeight="1">
+    <row r="105" spans="1:13" ht="42" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>518</v>
+        <v>410</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>519</v>
+        <v>449</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>520</v>
+        <v>20</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>521</v>
+        <v>450</v>
       </c>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>551</v>
+        <v>451</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>552</v>
+        <v>452</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>501</v>
+        <v>405</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>553</v>
+        <v>453</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:13" ht="42" customHeight="1">
+    <row r="107" spans="1:13" ht="30" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="4" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>497</v>
+        <v>396</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>530</v>
+        <v>20</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:13" ht="30" customHeight="1">
+    <row r="108" spans="1:13" ht="42" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="4" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>559</v>
+        <v>457</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>560</v>
+        <v>458</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>524</v>
+        <v>396</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>562</v>
+        <v>20</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>35</v>
+        <v>460</v>
       </c>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13" ht="42" customHeight="1">
+    <row r="109" spans="1:13" ht="80.099999999999994" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>537</v>
+        <v>396</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>538</v>
+        <v>463</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>539</v>
+        <v>20</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>540</v>
+        <v>464</v>
       </c>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" ht="42" customHeight="1">
+    <row r="110" spans="1:13" ht="66.95" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>543</v>
+        <v>468</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>544</v>
+        <v>20</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>545</v>
+        <v>469</v>
       </c>
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="1:13" ht="42" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="4" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>546</v>
+        <v>470</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>547</v>
+        <v>471</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>549</v>
+        <v>20</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>550</v>
+        <v>33</v>
       </c>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:13" ht="30" customHeight="1">
+    <row r="112" spans="1:13" ht="42" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>602</v>
+        <v>393</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>603</v>
+        <v>473</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>604</v>
+        <v>474</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>605</v>
+        <v>415</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>607</v>
+        <v>20</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>35</v>
+        <v>476</v>
       </c>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="1:13" ht="80.099999999999994" customHeight="1">
+    <row r="113" spans="1:13" ht="66.95" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>554</v>
+        <v>477</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>556</v>
+        <v>479</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>557</v>
+        <v>20</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>558</v>
+        <v>480</v>
       </c>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="1:13" ht="42" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="4" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>602</v>
+        <v>393</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>621</v>
+        <v>481</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>623</v>
+        <v>483</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="1:13" ht="42" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="4" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>537</v>
+        <v>396</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>565</v>
+        <v>487</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>566</v>
+        <v>20</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13" ht="66.95" customHeight="1">
+    <row r="116" spans="1:13" ht="42" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H116" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="I116" s="6" t="s">
-        <v>570</v>
+        <v>491</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>571</v>
+        <v>20</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>572</v>
+        <v>33</v>
       </c>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:13" ht="66.95" customHeight="1">
+    <row r="117" spans="1:13" ht="42" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>573</v>
+        <v>492</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>575</v>
+        <v>494</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>576</v>
+        <v>20</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>577</v>
+        <v>33</v>
       </c>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:13" ht="30" customHeight="1">
+    <row r="118" spans="1:13" ht="42" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="4" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>579</v>
+        <v>496</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H118" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I118" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I118" s="6" t="s">
-        <v>580</v>
-      </c>
       <c r="J118" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>35</v>
+        <v>498</v>
       </c>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:13" ht="42" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>582</v>
+        <v>499</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>584</v>
+        <v>501</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>585</v>
+        <v>20</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:13" ht="42" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>587</v>
+        <v>503</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>588</v>
+        <v>504</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>497</v>
+        <v>396</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>590</v>
+        <v>20</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>591</v>
+        <v>33</v>
       </c>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:13" ht="42" customHeight="1">
+    <row r="121" spans="1:13" ht="30" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>592</v>
+        <v>506</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>593</v>
+        <v>507</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>595</v>
+        <v>20</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>596</v>
+        <v>33</v>
       </c>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="1:13" ht="42" customHeight="1">
+    <row r="122" spans="1:13" ht="66.95" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>598</v>
+        <v>510</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>599</v>
+        <v>511</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:13" ht="42" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>602</v>
+        <v>484</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>629</v>
+        <v>513</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>630</v>
+        <v>514</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>631</v>
+        <v>515</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>632</v>
+        <v>20</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>35</v>
+        <v>516</v>
       </c>
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="1:13" ht="42" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="4" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>602</v>
+        <v>484</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>608</v>
+        <v>517</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>609</v>
+        <v>518</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>610</v>
+        <v>519</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>611</v>
+        <v>20</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>612</v>
+        <v>520</v>
       </c>
       <c r="M124" s="1"/>
-    </row>
-    <row r="125" spans="1:13" ht="42" customHeight="1">
-      <c r="A125" s="1"/>
-      <c r="B125" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M125" s="1"/>
-    </row>
-    <row r="126" spans="1:13" ht="42" customHeight="1">
-      <c r="A126" s="1"/>
-      <c r="B126" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="M126" s="1"/>
-    </row>
-    <row r="127" spans="1:13" ht="42" customHeight="1">
-      <c r="A127" s="1"/>
-      <c r="B127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M127" s="1"/>
-    </row>
-    <row r="128" spans="1:13" ht="42" customHeight="1">
-      <c r="A128" s="1"/>
-      <c r="B128" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M128" s="1"/>
-    </row>
-    <row r="129" spans="1:13" ht="30" customHeight="1">
-      <c r="A129" s="1"/>
-      <c r="B129" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="L129" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M129" s="1"/>
-    </row>
-    <row r="130" spans="1:13" ht="66.95" customHeight="1">
-      <c r="A130" s="1"/>
-      <c r="B130" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="M130" s="1"/>
-    </row>
-    <row r="131" spans="1:13" ht="42" customHeight="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="L131" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="M131" s="1"/>
-    </row>
-    <row r="132" spans="1:13" ht="42" customHeight="1">
-      <c r="A132" s="1"/>
-      <c r="B132" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="M132" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7397,26 +6720,26 @@
     <hyperlink ref="I37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="E38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="I38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E127" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I127" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E39" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I39" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="E41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="I41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E40" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I40" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E42" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I42" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="E44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="I44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E43" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I43" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="E46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="I46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="E47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="I47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E45" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="I45" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="E49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="I49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="E50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
@@ -7431,8 +6754,8 @@
     <hyperlink ref="I54" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="E55" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
     <hyperlink ref="I55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E48" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I48" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I56" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="E57" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="I57" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="E58" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
@@ -7447,108 +6770,108 @@
     <hyperlink ref="I62" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="E63" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
     <hyperlink ref="I63" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E56" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="I56" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E64" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
     <hyperlink ref="E65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
     <hyperlink ref="I65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E64" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="I64" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="I66" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
     <hyperlink ref="E67" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
     <hyperlink ref="I67" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E66" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="I66" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E68" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="I68" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E69" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="I69" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E68" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="I68" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E69" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="I69" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E70" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="I70" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
     <hyperlink ref="E71" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
     <hyperlink ref="I71" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E70" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="I70" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E72" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="I72" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="E73" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
     <hyperlink ref="I73" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E72" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="I72" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E74" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="I74" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E74" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="I74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="I75" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
     <hyperlink ref="E76" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="I76" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
     <hyperlink ref="E77" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
     <hyperlink ref="I77" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
     <hyperlink ref="E78" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="I78" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E75" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="I75" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E79" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="I79" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E79" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="I79" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E80" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="I80" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
     <hyperlink ref="E81" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
     <hyperlink ref="I81" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E80" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="I80" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E82" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="I82" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E83" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="I83" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E82" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="I82" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E83" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="I83" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E84" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="I84" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
     <hyperlink ref="E85" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
     <hyperlink ref="I85" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E129" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="I129" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E86" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="I86" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
     <hyperlink ref="E87" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
     <hyperlink ref="I87" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="E88" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
     <hyperlink ref="I88" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E84" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="I84" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E89" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="I89" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
     <hyperlink ref="E90" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
     <hyperlink ref="I90" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
     <hyperlink ref="E91" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
     <hyperlink ref="I91" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E86" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="I86" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E92" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="I92" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
     <hyperlink ref="E93" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
     <hyperlink ref="I93" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
     <hyperlink ref="E94" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
     <hyperlink ref="I94" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E89" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="I89" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E95" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="I95" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
     <hyperlink ref="E96" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
     <hyperlink ref="I96" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
     <hyperlink ref="E97" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
     <hyperlink ref="I97" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
     <hyperlink ref="E98" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
     <hyperlink ref="I98" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E92" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="I92" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E95" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="I95" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="E99" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="I99" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E100" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="I100" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
     <hyperlink ref="E101" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
     <hyperlink ref="I101" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
     <hyperlink ref="E102" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
     <hyperlink ref="I102" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
     <hyperlink ref="E103" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
     <hyperlink ref="I103" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="E99" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="I99" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E104" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="I104" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
     <hyperlink ref="E105" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
     <hyperlink ref="I105" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="E100" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="I100" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E106" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="I106" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
     <hyperlink ref="E107" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
     <hyperlink ref="I107" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E104" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="I104" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E108" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="I108" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
     <hyperlink ref="E109" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
     <hyperlink ref="I109" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
     <hyperlink ref="E110" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
     <hyperlink ref="I110" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
     <hyperlink ref="E111" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
     <hyperlink ref="I111" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="E106" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="I106" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="E112" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="I112" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="E113" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="I113" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E108" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="I108" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E114" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="I114" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
     <hyperlink ref="E115" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
     <hyperlink ref="I115" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
     <hyperlink ref="E116" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
@@ -7565,26 +6888,10 @@
     <hyperlink ref="I121" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="E122" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
     <hyperlink ref="I122" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E112" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="I112" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E123" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="I123" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
     <hyperlink ref="E124" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
     <hyperlink ref="I124" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E125" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="I125" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="E126" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="I126" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="E114" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="I114" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E128" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="I128" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E123" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="I123" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E130" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="I130" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="E131" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="I131" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="E132" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="I132" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
